--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -76,19 +76,19 @@
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
+    <t xml:space="preserve">Q6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
   </si>
   <si>
     <t xml:space="preserve">Q8</t>
@@ -3029,7 +3029,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3133,35 +3133,35 @@
         <v>17</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,7 +3175,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,7 +3203,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,7 +3217,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3231,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,7 +3245,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3259,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3273,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,7 +3287,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,7 +3315,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,7 +3329,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,7 +3343,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3357,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,7 +3371,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3385,7 @@
         <v>54</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,7 +3399,7 @@
         <v>56</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,7 +3413,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,7 +3427,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +3441,7 @@
         <v>62</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,7 +3455,7 @@
         <v>64</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,7 +3469,7 @@
         <v>66</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,7 +3483,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,7 +3497,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,7 +3511,7 @@
         <v>72</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,7 +3525,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,7 +3539,7 @@
         <v>76</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,7 +3553,7 @@
         <v>78</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,20 +3567,20 @@
         <v>80</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="10"/>
       <c r="D42" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8"/>
       <c r="C43" s="10"/>
       <c r="D43" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,7 +3594,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,7 +3608,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,7 +3622,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,7 +3636,7 @@
         <v>89</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,7 +3650,7 @@
         <v>91</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,7 +3664,7 @@
         <v>93</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,7 +3678,7 @@
         <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,7 +3692,7 @@
         <v>97</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,7 +3706,7 @@
         <v>99</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,7 +3720,7 @@
         <v>101</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,7 +3739,7 @@
         <v>104</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3753,7 @@
         <v>106</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,7 +3767,7 @@
         <v>108</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +3781,7 @@
         <v>110</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,7 +3795,7 @@
         <v>112</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,7 +3809,7 @@
         <v>114</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,7 +3823,7 @@
         <v>116</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,7 +3837,7 @@
         <v>118</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,7 +3851,7 @@
         <v>120</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,7 +3865,7 @@
         <v>122</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,7 +3879,7 @@
         <v>124</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +3893,7 @@
         <v>126</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,7 +3907,7 @@
         <v>128</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,7 +3921,7 @@
         <v>130</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,7 +3935,7 @@
         <v>132</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,7 +3949,7 @@
         <v>134</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,7 +3963,7 @@
         <v>136</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,7 +3977,7 @@
         <v>138</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,7 +3991,7 @@
         <v>140</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,7 +4005,7 @@
         <v>142</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,7 +4019,7 @@
         <v>144</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,7 +4033,7 @@
         <v>146</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,7 +4047,7 @@
         <v>148</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,7 +4061,7 @@
         <v>150</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4075,7 +4075,7 @@
         <v>152</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,7 +4089,7 @@
         <v>154</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,7 +4103,7 @@
         <v>156</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,7 +4117,7 @@
         <v>158</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,7 +4131,7 @@
         <v>160</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,7 +4145,7 @@
         <v>162</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,7 +4159,7 @@
         <v>164</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,7 +4173,7 @@
         <v>166</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4187,7 @@
         <v>168</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +4201,7 @@
         <v>170</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,7 +4215,7 @@
         <v>172</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,7 +4229,7 @@
         <v>174</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4243,7 @@
         <v>176</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,7 +4257,7 @@
         <v>178</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4271,7 @@
         <v>180</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,7 +4285,7 @@
         <v>182</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,7 +4299,7 @@
         <v>184</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,7 +4313,7 @@
         <v>186</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,7 +4327,7 @@
         <v>188</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,7 +4346,7 @@
         <v>191</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,7 +4360,7 @@
         <v>193</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,7 +4374,7 @@
         <v>195</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4388,7 @@
         <v>197</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,7 +4402,7 @@
         <v>199</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,7 +4416,7 @@
         <v>201</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4430,7 @@
         <v>203</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,7 +4444,7 @@
         <v>205</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,7 +4458,7 @@
         <v>207</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,7 +4472,7 @@
         <v>209</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +4486,7 @@
         <v>211</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4500,7 @@
         <v>213</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,7 +4514,7 @@
         <v>215</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,7 +4528,7 @@
         <v>217</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4542,7 @@
         <v>219</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,7 +4556,7 @@
         <v>221</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,7 +4570,7 @@
         <v>223</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4584,7 @@
         <v>225</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,7 +4598,7 @@
         <v>227</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,7 +4612,7 @@
         <v>229</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,7 +4626,7 @@
         <v>231</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +4640,7 @@
         <v>233</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4654,7 @@
         <v>235</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,7 +4668,7 @@
         <v>237</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,7 +4682,7 @@
         <v>239</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4696,7 @@
         <v>241</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4710,7 @@
         <v>243</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4724,7 @@
         <v>245</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +4738,7 @@
         <v>247</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4752,7 @@
         <v>249</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,7 +4766,7 @@
         <v>251</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,7 +4780,7 @@
         <v>253</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,7 +4794,7 @@
         <v>255</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,7 +4808,7 @@
         <v>257</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,7 +4822,7 @@
         <v>259</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,7 +4836,7 @@
         <v>261</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +4854,7 @@
         <v>264</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,7 +4868,7 @@
         <v>266</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,7 +4882,7 @@
         <v>268</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +4896,7 @@
         <v>270</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +4910,7 @@
         <v>272</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,7 +4924,7 @@
         <v>274</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,7 +4938,7 @@
         <v>276</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4952,7 @@
         <v>278</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,7 +4966,7 @@
         <v>280</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +4980,7 @@
         <v>282</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,7 +4994,7 @@
         <v>284</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,7 +5008,7 @@
         <v>286</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +5022,7 @@
         <v>288</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,7 +5036,7 @@
         <v>290</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,7 +5050,7 @@
         <v>292</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5064,7 @@
         <v>294</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,7 +5078,7 @@
         <v>296</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5092,7 @@
         <v>298</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,7 +5106,7 @@
         <v>300</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5120,7 @@
         <v>302</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,7 +5134,7 @@
         <v>304</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5148,7 +5148,7 @@
         <v>306</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5162,7 @@
         <v>308</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5176,7 @@
         <v>310</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,7 +5190,7 @@
         <v>312</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,7 +5204,7 @@
         <v>314</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,7 +5218,7 @@
         <v>316</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,7 +5232,7 @@
         <v>318</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5246,7 @@
         <v>320</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,7 +5260,7 @@
         <v>322</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,7 +5274,7 @@
         <v>324</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +5288,7 @@
         <v>326</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,7 +5302,7 @@
         <v>328</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,7 +5316,7 @@
         <v>330</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5330,7 +5330,7 @@
         <v>332</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +5344,7 @@
         <v>334</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,7 +5362,7 @@
         <v>337</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +5376,7 @@
         <v>339</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,7 +5390,7 @@
         <v>341</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,7 +5404,7 @@
         <v>343</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,7 +5418,7 @@
         <v>345</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +5432,7 @@
         <v>347</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,7 +5446,7 @@
         <v>349</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,7 +5460,7 @@
         <v>351</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,7 +5474,7 @@
         <v>353</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5488,7 @@
         <v>355</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,7 +5502,7 @@
         <v>357</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,7 +5516,7 @@
         <v>359</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,7 +5530,7 @@
         <v>361</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5544,7 @@
         <v>363</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5558,7 +5558,7 @@
         <v>365</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,7 +5572,7 @@
         <v>367</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,7 +5586,7 @@
         <v>369</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,7 +5600,7 @@
         <v>371</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,7 +5614,7 @@
         <v>373</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5628,7 @@
         <v>375</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5642,7 @@
         <v>377</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +5656,7 @@
         <v>379</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,7 +5670,7 @@
         <v>381</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,7 +5684,7 @@
         <v>383</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5698,7 +5698,7 @@
         <v>385</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5712,7 @@
         <v>387</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +5726,7 @@
         <v>389</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5740,7 +5740,7 @@
         <v>391</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,7 +5754,7 @@
         <v>393</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,7 +5768,7 @@
         <v>395</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,7 +5782,7 @@
         <v>397</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,7 +5796,7 @@
         <v>399</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,7 +5810,7 @@
         <v>401</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5824,7 @@
         <v>403</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5838,7 @@
         <v>405</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +5862,7 @@
         <v>408</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,7 +5876,7 @@
         <v>410</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,7 +5890,7 @@
         <v>412</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5904,7 @@
         <v>414</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,7 +5918,7 @@
         <v>416</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5932,7 +5932,7 @@
         <v>418</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,7 +5946,7 @@
         <v>420</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,7 +5960,7 @@
         <v>422</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,7 +5974,7 @@
         <v>424</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,7 +5988,7 @@
         <v>426</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6002,7 +6002,7 @@
         <v>428</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6016,7 @@
         <v>430</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,7 +6030,7 @@
         <v>432</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,7 +6044,7 @@
         <v>434</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,7 +6058,7 @@
         <v>436</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,7 +6072,7 @@
         <v>438</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,7 +6086,7 @@
         <v>440</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,7 +6100,7 @@
         <v>442</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6114,7 +6114,7 @@
         <v>444</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +6128,7 @@
         <v>446</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,7 +6142,7 @@
         <v>448</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,7 +6156,7 @@
         <v>450</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6178,7 +6178,7 @@
         <v>453</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,7 +6192,7 @@
         <v>455</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,7 +6206,7 @@
         <v>457</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,7 +6220,7 @@
         <v>459</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6234,7 +6234,7 @@
         <v>461</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,7 +6248,7 @@
         <v>463</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6262,7 +6262,7 @@
         <v>465</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6276,7 +6276,7 @@
         <v>467</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,7 +6290,7 @@
         <v>469</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6304,7 @@
         <v>471</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,7 +6318,7 @@
         <v>473</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,7 +6332,7 @@
         <v>475</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,7 +6346,7 @@
         <v>477</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6360,7 +6360,7 @@
         <v>479</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6374,7 +6374,7 @@
         <v>481</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6388,7 +6388,7 @@
         <v>483</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6402,7 +6402,7 @@
         <v>485</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,7 +6416,7 @@
         <v>487</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6430,7 +6430,7 @@
         <v>489</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,7 +6444,7 @@
         <v>491</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6458,7 @@
         <v>493</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6472,7 +6472,7 @@
         <v>495</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,7 +6486,7 @@
         <v>497</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,7 +6500,7 @@
         <v>499</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,7 +6514,7 @@
         <v>501</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6528,7 +6528,7 @@
         <v>503</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6542,7 +6542,7 @@
         <v>505</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6556,7 +6556,7 @@
         <v>507</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,7 +6570,7 @@
         <v>509</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,7 +6584,7 @@
         <v>511</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,7 +6598,7 @@
         <v>513</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,7 +6612,7 @@
         <v>515</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6626,7 +6626,7 @@
         <v>517</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,7 +6640,7 @@
         <v>170</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,7 +6654,7 @@
         <v>520</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,7 +6676,7 @@
         <v>523</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,7 +6690,7 @@
         <v>525</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6704,7 +6704,7 @@
         <v>527</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,7 +6718,7 @@
         <v>529</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6732,7 +6732,7 @@
         <v>531</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6746,7 +6746,7 @@
         <v>533</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,7 +6760,7 @@
         <v>535</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,7 +6774,7 @@
         <v>537</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6788,7 +6788,7 @@
         <v>539</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6802,7 +6802,7 @@
         <v>541</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6816,7 +6816,7 @@
         <v>543</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,7 +6830,7 @@
         <v>545</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,7 +6844,7 @@
         <v>547</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6858,7 +6858,7 @@
         <v>549</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6872,7 +6872,7 @@
         <v>551</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,7 +6886,7 @@
         <v>553</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,7 +6900,7 @@
         <v>555</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,7 +6914,7 @@
         <v>557</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6928,7 +6928,7 @@
         <v>559</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,7 +6950,7 @@
         <v>562</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6964,7 +6964,7 @@
         <v>564</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6978,7 +6978,7 @@
         <v>566</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,7 +6992,7 @@
         <v>568</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,7 +7006,7 @@
         <v>570</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7020,7 +7020,7 @@
         <v>572</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,7 +7034,7 @@
         <v>574</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7048,7 +7048,7 @@
         <v>576</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7062,7 +7062,7 @@
         <v>578</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7076,7 +7076,7 @@
         <v>580</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,7 +7090,7 @@
         <v>582</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,7 +7104,7 @@
         <v>584</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7118,7 +7118,7 @@
         <v>586</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,7 +7132,7 @@
         <v>588</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,7 +7146,7 @@
         <v>590</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,7 +7160,7 @@
         <v>592</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,7 +7174,7 @@
         <v>594</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,7 +7188,7 @@
         <v>596</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,7 +7202,7 @@
         <v>598</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,7 +7216,7 @@
         <v>600</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7230,7 +7230,7 @@
         <v>602</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,7 +7244,7 @@
         <v>604</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,7 +7258,7 @@
         <v>606</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7272,7 +7272,7 @@
         <v>608</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7286,7 +7286,7 @@
         <v>610</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7300,7 +7300,7 @@
         <v>612</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,7 +7314,7 @@
         <v>614</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,7 +7328,7 @@
         <v>616</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,7 +7342,7 @@
         <v>618</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,7 +7356,7 @@
         <v>620</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7370,7 +7370,7 @@
         <v>622</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,7 +7384,7 @@
         <v>624</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7398,7 +7398,7 @@
         <v>626</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,7 +7412,7 @@
         <v>628</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7426,7 +7426,7 @@
         <v>630</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,7 +7440,7 @@
         <v>632</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,7 +7454,7 @@
         <v>634</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7468,7 +7468,7 @@
         <v>636</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7490,7 +7490,7 @@
         <v>639</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,7 +7504,7 @@
         <v>641</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7518,7 +7518,7 @@
         <v>643</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,7 +7532,7 @@
         <v>645</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,7 +7546,7 @@
         <v>647</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,7 +7560,7 @@
         <v>649</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7574,7 +7574,7 @@
         <v>651</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7588,7 +7588,7 @@
         <v>653</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7602,7 +7602,7 @@
         <v>655</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,7 +7616,7 @@
         <v>657</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,7 +7630,7 @@
         <v>659</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,7 +7644,7 @@
         <v>661</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7658,7 +7658,7 @@
         <v>663</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7672,7 +7672,7 @@
         <v>665</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,7 +7686,7 @@
         <v>667</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,7 +7700,7 @@
         <v>669</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,7 +7714,7 @@
         <v>671</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7728,7 +7728,7 @@
         <v>673</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7750,7 +7750,7 @@
         <v>676</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,7 +7764,7 @@
         <v>678</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7778,7 +7778,7 @@
         <v>680</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7792,7 +7792,7 @@
         <v>682</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7806,7 +7806,7 @@
         <v>684</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7820,7 +7820,7 @@
         <v>686</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,7 +7834,7 @@
         <v>688</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7848,7 +7848,7 @@
         <v>690</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7862,7 +7862,7 @@
         <v>692</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7876,7 +7876,7 @@
         <v>694</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7890,7 +7890,7 @@
         <v>696</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,7 +7904,7 @@
         <v>698</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7918,7 +7918,7 @@
         <v>700</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7932,7 +7932,7 @@
         <v>702</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,7 +7946,7 @@
         <v>704</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7960,7 +7960,7 @@
         <v>706</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7974,7 +7974,7 @@
         <v>708</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,7 +7988,7 @@
         <v>710</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8002,7 +8002,7 @@
         <v>712</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8016,7 +8016,7 @@
         <v>714</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8030,7 +8030,7 @@
         <v>716</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8044,7 +8044,7 @@
         <v>718</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8058,7 +8058,7 @@
         <v>720</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,7 +8072,7 @@
         <v>722</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8086,7 +8086,7 @@
         <v>724</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8100,7 +8100,7 @@
         <v>726</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8114,7 +8114,7 @@
         <v>728</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8128,7 +8128,7 @@
         <v>730</v>
       </c>
       <c r="D383" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8142,7 +8142,7 @@
         <v>732</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8156,7 +8156,7 @@
         <v>734</v>
       </c>
       <c r="D385" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,7 +8170,7 @@
         <v>736</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8184,7 +8184,7 @@
         <v>738</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8198,7 +8198,7 @@
         <v>740</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8212,7 +8212,7 @@
         <v>742</v>
       </c>
       <c r="D389" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8226,7 +8226,7 @@
         <v>742</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8240,7 +8240,7 @@
         <v>745</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,7 +8254,7 @@
         <v>747</v>
       </c>
       <c r="D392" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,7 +8268,7 @@
         <v>749</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,7 +8282,7 @@
         <v>751</v>
       </c>
       <c r="D394" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8296,7 +8296,7 @@
         <v>753</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,7 +8310,7 @@
         <v>755</v>
       </c>
       <c r="D396" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,7 +8324,7 @@
         <v>757</v>
       </c>
       <c r="D397" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8338,7 +8338,7 @@
         <v>759</v>
       </c>
       <c r="D398" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8352,7 +8352,7 @@
         <v>761</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8374,7 +8374,7 @@
         <v>764</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8388,7 +8388,7 @@
         <v>766</v>
       </c>
       <c r="D403" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8402,7 +8402,7 @@
         <v>768</v>
       </c>
       <c r="D404" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8416,7 +8416,7 @@
         <v>174</v>
       </c>
       <c r="D405" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8430,7 +8430,7 @@
         <v>771</v>
       </c>
       <c r="D406" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8444,7 +8444,7 @@
         <v>773</v>
       </c>
       <c r="D407" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,7 +8466,7 @@
         <v>776</v>
       </c>
       <c r="D410" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,7 +8480,7 @@
         <v>778</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8494,7 +8494,7 @@
         <v>780</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8508,7 +8508,7 @@
         <v>782</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,7 +8522,7 @@
         <v>784</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,7 +8536,7 @@
         <v>786</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8550,7 +8550,7 @@
         <v>788</v>
       </c>
       <c r="D416" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8564,7 +8564,7 @@
         <v>537</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8578,7 +8578,7 @@
         <v>791</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8592,7 +8592,7 @@
         <v>793</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8606,7 +8606,7 @@
         <v>795</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8620,7 +8620,7 @@
         <v>797</v>
       </c>
       <c r="D421" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8634,7 +8634,7 @@
         <v>799</v>
       </c>
       <c r="D422" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8648,7 +8648,7 @@
         <v>801</v>
       </c>
       <c r="D423" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8662,7 +8662,7 @@
         <v>803</v>
       </c>
       <c r="D424" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8676,7 +8676,7 @@
         <v>805</v>
       </c>
       <c r="D425" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,7 +8690,7 @@
         <v>807</v>
       </c>
       <c r="D426" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8704,7 +8704,7 @@
         <v>809</v>
       </c>
       <c r="D427" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,7 +8718,7 @@
         <v>811</v>
       </c>
       <c r="D428" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8732,7 +8732,7 @@
         <v>813</v>
       </c>
       <c r="D429" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8746,7 +8746,7 @@
         <v>815</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8760,7 +8760,7 @@
         <v>817</v>
       </c>
       <c r="D431" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8774,7 +8774,7 @@
         <v>819</v>
       </c>
       <c r="D432" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8788,7 +8788,7 @@
         <v>821</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8802,7 +8802,7 @@
         <v>823</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8816,7 +8816,7 @@
         <v>825</v>
       </c>
       <c r="D435" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8830,7 +8830,7 @@
         <v>827</v>
       </c>
       <c r="D436" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8844,7 +8844,7 @@
         <v>829</v>
       </c>
       <c r="D437" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8858,7 +8858,7 @@
         <v>831</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8872,7 +8872,7 @@
         <v>833</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8886,7 +8886,7 @@
         <v>835</v>
       </c>
       <c r="D440" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8900,7 +8900,7 @@
         <v>837</v>
       </c>
       <c r="D441" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,7 +8914,7 @@
         <v>839</v>
       </c>
       <c r="D442" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8928,7 +8928,7 @@
         <v>841</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8942,7 +8942,7 @@
         <v>843</v>
       </c>
       <c r="D444" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8956,7 +8956,7 @@
         <v>845</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8970,7 +8970,7 @@
         <v>847</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,7 +8984,7 @@
         <v>849</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8998,7 +8998,7 @@
         <v>851</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9012,7 +9012,7 @@
         <v>853</v>
       </c>
       <c r="D449" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9026,7 +9026,7 @@
         <v>855</v>
       </c>
       <c r="D450" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,7 +9040,7 @@
         <v>857</v>
       </c>
       <c r="D451" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,7 +9054,7 @@
         <v>859</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9068,7 +9068,7 @@
         <v>861</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9082,7 +9082,7 @@
         <v>863</v>
       </c>
       <c r="D454" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9096,7 +9096,7 @@
         <v>865</v>
       </c>
       <c r="D455" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9110,7 +9110,7 @@
         <v>867</v>
       </c>
       <c r="D456" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9124,7 +9124,7 @@
         <v>869</v>
       </c>
       <c r="D457" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9138,7 +9138,7 @@
         <v>871</v>
       </c>
       <c r="D458" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9152,7 +9152,7 @@
         <v>873</v>
       </c>
       <c r="D459" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9166,7 +9166,7 @@
         <v>875</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9180,7 +9180,7 @@
         <v>877</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9194,7 +9194,7 @@
         <v>879</v>
       </c>
       <c r="D462" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9208,7 +9208,7 @@
         <v>881</v>
       </c>
       <c r="D463" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,7 +9222,7 @@
         <v>883</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,7 +9236,7 @@
         <v>885</v>
       </c>
       <c r="D465" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,7 +9250,7 @@
         <v>887</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9264,7 +9264,7 @@
         <v>889</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9278,7 +9278,7 @@
         <v>891</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9292,7 +9292,7 @@
         <v>893</v>
       </c>
       <c r="D469" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9315,7 +9315,7 @@
         <v>896</v>
       </c>
       <c r="D472" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9329,7 +9329,7 @@
         <v>898</v>
       </c>
       <c r="D473" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9343,7 +9343,7 @@
         <v>900</v>
       </c>
       <c r="D474" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,7 +9357,7 @@
         <v>902</v>
       </c>
       <c r="D475" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9371,7 +9371,7 @@
         <v>904</v>
       </c>
       <c r="D476" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9385,7 +9385,7 @@
         <v>906</v>
       </c>
       <c r="D477" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,7 +9399,7 @@
         <v>908</v>
       </c>
       <c r="D478" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9413,7 +9413,7 @@
         <v>910</v>
       </c>
       <c r="D479" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9427,7 +9427,7 @@
         <v>912</v>
       </c>
       <c r="D480" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9441,7 +9441,7 @@
         <v>914</v>
       </c>
       <c r="D481" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3028,8 +3028,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3739,7 +3739,7 @@
         <v>104</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -88,13 +88,13 @@
     <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
   </si>
   <si>
+    <t xml:space="preserve">Q8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
     <t xml:space="preserve">Q9</t>
@@ -3028,8 +3028,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3161,21 +3161,21 @@
         <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,7 +3203,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,7 +3217,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3231,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,7 +3245,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3259,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3273,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,7 +3287,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,7 +3315,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,7 +3329,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,7 +3343,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3357,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,7 +3371,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3385,7 @@
         <v>54</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,7 +3399,7 @@
         <v>56</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,7 +3413,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,7 +3427,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +3441,7 @@
         <v>62</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,7 +3455,7 @@
         <v>64</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,7 +3469,7 @@
         <v>66</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,7 +3483,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,7 +3497,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,7 +3511,7 @@
         <v>72</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,7 +3525,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,7 +3539,7 @@
         <v>76</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,7 +3553,7 @@
         <v>78</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,20 +3567,20 @@
         <v>80</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="10"/>
       <c r="D42" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8"/>
       <c r="C43" s="10"/>
       <c r="D43" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,7 +3594,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,7 +3608,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,7 +3622,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,7 +3636,7 @@
         <v>89</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,7 +3650,7 @@
         <v>91</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,7 +3664,7 @@
         <v>93</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,7 +3678,7 @@
         <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,7 +3692,7 @@
         <v>97</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,7 +3706,7 @@
         <v>99</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,7 +3720,7 @@
         <v>101</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3753,7 @@
         <v>106</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,7 +3767,7 @@
         <v>108</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +3781,7 @@
         <v>110</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,7 +3795,7 @@
         <v>112</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,7 +3809,7 @@
         <v>114</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,7 +3823,7 @@
         <v>116</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,7 +3837,7 @@
         <v>118</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,7 +3851,7 @@
         <v>120</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,7 +3865,7 @@
         <v>122</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,7 +3879,7 @@
         <v>124</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +3893,7 @@
         <v>126</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,7 +3907,7 @@
         <v>128</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,7 +3921,7 @@
         <v>130</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,7 +3935,7 @@
         <v>132</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,7 +3949,7 @@
         <v>134</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,7 +3963,7 @@
         <v>136</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,7 +3977,7 @@
         <v>138</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,7 +3991,7 @@
         <v>140</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,7 +4005,7 @@
         <v>142</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,7 +4019,7 @@
         <v>144</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,7 +4033,7 @@
         <v>146</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,7 +4047,7 @@
         <v>148</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,7 +4061,7 @@
         <v>150</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4075,7 +4075,7 @@
         <v>152</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,7 +4089,7 @@
         <v>154</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,7 +4103,7 @@
         <v>156</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,7 +4117,7 @@
         <v>158</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,7 +4131,7 @@
         <v>160</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,7 +4145,7 @@
         <v>162</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,7 +4159,7 @@
         <v>164</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,7 +4173,7 @@
         <v>166</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4187,7 @@
         <v>168</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +4201,7 @@
         <v>170</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,7 +4215,7 @@
         <v>172</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,7 +4229,7 @@
         <v>174</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4243,7 @@
         <v>176</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,7 +4257,7 @@
         <v>178</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4271,7 @@
         <v>180</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,7 +4285,7 @@
         <v>182</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,7 +4299,7 @@
         <v>184</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,7 +4313,7 @@
         <v>186</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,7 +4327,7 @@
         <v>188</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,7 +4346,7 @@
         <v>191</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,7 +4360,7 @@
         <v>193</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,7 +4374,7 @@
         <v>195</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4388,7 @@
         <v>197</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,7 +4402,7 @@
         <v>199</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,7 +4416,7 @@
         <v>201</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4430,7 @@
         <v>203</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,7 +4444,7 @@
         <v>205</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,7 +4458,7 @@
         <v>207</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,7 +4472,7 @@
         <v>209</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +4486,7 @@
         <v>211</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4500,7 @@
         <v>213</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,7 +4514,7 @@
         <v>215</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,7 +4528,7 @@
         <v>217</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4542,7 @@
         <v>219</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,7 +4556,7 @@
         <v>221</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,7 +4570,7 @@
         <v>223</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4584,7 @@
         <v>225</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,7 +4598,7 @@
         <v>227</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,7 +4612,7 @@
         <v>229</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,7 +4626,7 @@
         <v>231</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +4640,7 @@
         <v>233</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4654,7 @@
         <v>235</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,7 +4668,7 @@
         <v>237</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,7 +4682,7 @@
         <v>239</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4696,7 @@
         <v>241</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4710,7 @@
         <v>243</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4724,7 @@
         <v>245</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +4738,7 @@
         <v>247</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4752,7 @@
         <v>249</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,7 +4766,7 @@
         <v>251</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,7 +4780,7 @@
         <v>253</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,7 +4794,7 @@
         <v>255</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,7 +4808,7 @@
         <v>257</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,7 +4822,7 @@
         <v>259</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,7 +4836,7 @@
         <v>261</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +4854,7 @@
         <v>264</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,7 +4868,7 @@
         <v>266</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,7 +4882,7 @@
         <v>268</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +4896,7 @@
         <v>270</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +4910,7 @@
         <v>272</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,7 +4924,7 @@
         <v>274</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,7 +4938,7 @@
         <v>276</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4952,7 @@
         <v>278</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,7 +4966,7 @@
         <v>280</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +4980,7 @@
         <v>282</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,7 +4994,7 @@
         <v>284</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,7 +5008,7 @@
         <v>286</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +5022,7 @@
         <v>288</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,7 +5036,7 @@
         <v>290</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,7 +5050,7 @@
         <v>292</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5064,7 @@
         <v>294</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,7 +5078,7 @@
         <v>296</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5092,7 @@
         <v>298</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,7 +5106,7 @@
         <v>300</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5120,7 @@
         <v>302</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,7 +5134,7 @@
         <v>304</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5148,7 +5148,7 @@
         <v>306</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5162,7 @@
         <v>308</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5176,7 @@
         <v>310</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,7 +5190,7 @@
         <v>312</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,7 +5204,7 @@
         <v>314</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,7 +5218,7 @@
         <v>316</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,7 +5232,7 @@
         <v>318</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5246,7 @@
         <v>320</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,7 +5260,7 @@
         <v>322</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,7 +5274,7 @@
         <v>324</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +5288,7 @@
         <v>326</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,7 +5302,7 @@
         <v>328</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,7 +5316,7 @@
         <v>330</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5330,7 +5330,7 @@
         <v>332</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +5344,7 @@
         <v>334</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,7 +5362,7 @@
         <v>337</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +5376,7 @@
         <v>339</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,7 +5390,7 @@
         <v>341</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,7 +5404,7 @@
         <v>343</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,7 +5418,7 @@
         <v>345</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +5432,7 @@
         <v>347</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,7 +5446,7 @@
         <v>349</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,7 +5460,7 @@
         <v>351</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,7 +5474,7 @@
         <v>353</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5488,7 @@
         <v>355</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,7 +5502,7 @@
         <v>357</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,7 +5516,7 @@
         <v>359</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,7 +5530,7 @@
         <v>361</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5544,7 @@
         <v>363</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5558,7 +5558,7 @@
         <v>365</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,7 +5572,7 @@
         <v>367</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,7 +5586,7 @@
         <v>369</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,7 +5600,7 @@
         <v>371</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,7 +5614,7 @@
         <v>373</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5628,7 @@
         <v>375</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5642,7 @@
         <v>377</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +5656,7 @@
         <v>379</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,7 +5670,7 @@
         <v>381</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,7 +5684,7 @@
         <v>383</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5698,7 +5698,7 @@
         <v>385</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5712,7 @@
         <v>387</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +5726,7 @@
         <v>389</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5740,7 +5740,7 @@
         <v>391</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,7 +5754,7 @@
         <v>393</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,7 +5768,7 @@
         <v>395</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,7 +5782,7 @@
         <v>397</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,7 +5796,7 @@
         <v>399</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,7 +5810,7 @@
         <v>401</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5824,7 @@
         <v>403</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5838,7 @@
         <v>405</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +5862,7 @@
         <v>408</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,7 +5876,7 @@
         <v>410</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,7 +5890,7 @@
         <v>412</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5904,7 @@
         <v>414</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,7 +5918,7 @@
         <v>416</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5932,7 +5932,7 @@
         <v>418</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,7 +5946,7 @@
         <v>420</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,7 +5960,7 @@
         <v>422</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,7 +5974,7 @@
         <v>424</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,7 +5988,7 @@
         <v>426</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6002,7 +6002,7 @@
         <v>428</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6016,7 @@
         <v>430</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,7 +6030,7 @@
         <v>432</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,7 +6044,7 @@
         <v>434</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,7 +6058,7 @@
         <v>436</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,7 +6072,7 @@
         <v>438</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,7 +6086,7 @@
         <v>440</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,7 +6100,7 @@
         <v>442</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6114,7 +6114,7 @@
         <v>444</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +6128,7 @@
         <v>446</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,7 +6142,7 @@
         <v>448</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,7 +6156,7 @@
         <v>450</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6178,7 +6178,7 @@
         <v>453</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,7 +6192,7 @@
         <v>455</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,7 +6206,7 @@
         <v>457</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,7 +6220,7 @@
         <v>459</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6234,7 +6234,7 @@
         <v>461</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,7 +6248,7 @@
         <v>463</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6262,7 +6262,7 @@
         <v>465</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6276,7 +6276,7 @@
         <v>467</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,7 +6290,7 @@
         <v>469</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6304,7 @@
         <v>471</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,7 +6318,7 @@
         <v>473</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,7 +6332,7 @@
         <v>475</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,7 +6346,7 @@
         <v>477</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6360,7 +6360,7 @@
         <v>479</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6374,7 +6374,7 @@
         <v>481</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6388,7 +6388,7 @@
         <v>483</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6402,7 +6402,7 @@
         <v>485</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,7 +6416,7 @@
         <v>487</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6430,7 +6430,7 @@
         <v>489</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,7 +6444,7 @@
         <v>491</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6458,7 @@
         <v>493</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6472,7 +6472,7 @@
         <v>495</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,7 +6486,7 @@
         <v>497</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,7 +6500,7 @@
         <v>499</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,7 +6514,7 @@
         <v>501</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6528,7 +6528,7 @@
         <v>503</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6542,7 +6542,7 @@
         <v>505</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6556,7 +6556,7 @@
         <v>507</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,7 +6570,7 @@
         <v>509</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,7 +6584,7 @@
         <v>511</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,7 +6598,7 @@
         <v>513</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,7 +6612,7 @@
         <v>515</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6626,7 +6626,7 @@
         <v>517</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,7 +6640,7 @@
         <v>170</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,7 +6654,7 @@
         <v>520</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,7 +6676,7 @@
         <v>523</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,7 +6690,7 @@
         <v>525</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6704,7 +6704,7 @@
         <v>527</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,7 +6718,7 @@
         <v>529</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6732,7 +6732,7 @@
         <v>531</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6746,7 +6746,7 @@
         <v>533</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,7 +6760,7 @@
         <v>535</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,7 +6774,7 @@
         <v>537</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6788,7 +6788,7 @@
         <v>539</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6802,7 +6802,7 @@
         <v>541</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6816,7 +6816,7 @@
         <v>543</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,7 +6830,7 @@
         <v>545</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,7 +6844,7 @@
         <v>547</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6858,7 +6858,7 @@
         <v>549</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6872,7 +6872,7 @@
         <v>551</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,7 +6886,7 @@
         <v>553</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,7 +6900,7 @@
         <v>555</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,7 +6914,7 @@
         <v>557</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6928,7 +6928,7 @@
         <v>559</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,7 +6950,7 @@
         <v>562</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6964,7 +6964,7 @@
         <v>564</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6978,7 +6978,7 @@
         <v>566</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,7 +6992,7 @@
         <v>568</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,7 +7006,7 @@
         <v>570</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7020,7 +7020,7 @@
         <v>572</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,7 +7034,7 @@
         <v>574</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7048,7 +7048,7 @@
         <v>576</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7062,7 +7062,7 @@
         <v>578</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7076,7 +7076,7 @@
         <v>580</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,7 +7090,7 @@
         <v>582</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,7 +7104,7 @@
         <v>584</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7118,7 +7118,7 @@
         <v>586</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,7 +7132,7 @@
         <v>588</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,7 +7146,7 @@
         <v>590</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,7 +7160,7 @@
         <v>592</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,7 +7174,7 @@
         <v>594</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,7 +7188,7 @@
         <v>596</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,7 +7202,7 @@
         <v>598</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,7 +7216,7 @@
         <v>600</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7230,7 +7230,7 @@
         <v>602</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,7 +7244,7 @@
         <v>604</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,7 +7258,7 @@
         <v>606</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7272,7 +7272,7 @@
         <v>608</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7286,7 +7286,7 @@
         <v>610</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7300,7 +7300,7 @@
         <v>612</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,7 +7314,7 @@
         <v>614</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,7 +7328,7 @@
         <v>616</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,7 +7342,7 @@
         <v>618</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,7 +7356,7 @@
         <v>620</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7370,7 +7370,7 @@
         <v>622</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,7 +7384,7 @@
         <v>624</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7398,7 +7398,7 @@
         <v>626</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,7 +7412,7 @@
         <v>628</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7426,7 +7426,7 @@
         <v>630</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,7 +7440,7 @@
         <v>632</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,7 +7454,7 @@
         <v>634</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7468,7 +7468,7 @@
         <v>636</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7490,7 +7490,7 @@
         <v>639</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,7 +7504,7 @@
         <v>641</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7518,7 +7518,7 @@
         <v>643</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,7 +7532,7 @@
         <v>645</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,7 +7546,7 @@
         <v>647</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,7 +7560,7 @@
         <v>649</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7574,7 +7574,7 @@
         <v>651</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7588,7 +7588,7 @@
         <v>653</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7602,7 +7602,7 @@
         <v>655</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,7 +7616,7 @@
         <v>657</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,7 +7630,7 @@
         <v>659</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,7 +7644,7 @@
         <v>661</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7658,7 +7658,7 @@
         <v>663</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7672,7 +7672,7 @@
         <v>665</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,7 +7686,7 @@
         <v>667</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,7 +7700,7 @@
         <v>669</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,7 +7714,7 @@
         <v>671</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7728,7 +7728,7 @@
         <v>673</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7750,7 +7750,7 @@
         <v>676</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,7 +7764,7 @@
         <v>678</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7778,7 +7778,7 @@
         <v>680</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7792,7 +7792,7 @@
         <v>682</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7806,7 +7806,7 @@
         <v>684</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7820,7 +7820,7 @@
         <v>686</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,7 +7834,7 @@
         <v>688</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7848,7 +7848,7 @@
         <v>690</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7862,7 +7862,7 @@
         <v>692</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7876,7 +7876,7 @@
         <v>694</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7890,7 +7890,7 @@
         <v>696</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,7 +7904,7 @@
         <v>698</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7918,7 +7918,7 @@
         <v>700</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7932,7 +7932,7 @@
         <v>702</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,7 +7946,7 @@
         <v>704</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7960,7 +7960,7 @@
         <v>706</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7974,7 +7974,7 @@
         <v>708</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,7 +7988,7 @@
         <v>710</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8002,7 +8002,7 @@
         <v>712</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8016,7 +8016,7 @@
         <v>714</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8030,7 +8030,7 @@
         <v>716</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8044,7 +8044,7 @@
         <v>718</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8058,7 +8058,7 @@
         <v>720</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,7 +8072,7 @@
         <v>722</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8086,7 +8086,7 @@
         <v>724</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8100,7 +8100,7 @@
         <v>726</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8114,7 +8114,7 @@
         <v>728</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8128,7 +8128,7 @@
         <v>730</v>
       </c>
       <c r="D383" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8142,7 +8142,7 @@
         <v>732</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8156,7 +8156,7 @@
         <v>734</v>
       </c>
       <c r="D385" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,7 +8170,7 @@
         <v>736</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8184,7 +8184,7 @@
         <v>738</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8198,7 +8198,7 @@
         <v>740</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8212,7 +8212,7 @@
         <v>742</v>
       </c>
       <c r="D389" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8226,7 +8226,7 @@
         <v>742</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8240,7 +8240,7 @@
         <v>745</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,7 +8254,7 @@
         <v>747</v>
       </c>
       <c r="D392" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,7 +8268,7 @@
         <v>749</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,7 +8282,7 @@
         <v>751</v>
       </c>
       <c r="D394" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8296,7 +8296,7 @@
         <v>753</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,7 +8310,7 @@
         <v>755</v>
       </c>
       <c r="D396" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,7 +8324,7 @@
         <v>757</v>
       </c>
       <c r="D397" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8338,7 +8338,7 @@
         <v>759</v>
       </c>
       <c r="D398" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8352,7 +8352,7 @@
         <v>761</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8374,7 +8374,7 @@
         <v>764</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8388,7 +8388,7 @@
         <v>766</v>
       </c>
       <c r="D403" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8402,7 +8402,7 @@
         <v>768</v>
       </c>
       <c r="D404" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8416,7 +8416,7 @@
         <v>174</v>
       </c>
       <c r="D405" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8430,7 +8430,7 @@
         <v>771</v>
       </c>
       <c r="D406" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8444,7 +8444,7 @@
         <v>773</v>
       </c>
       <c r="D407" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,7 +8466,7 @@
         <v>776</v>
       </c>
       <c r="D410" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,7 +8480,7 @@
         <v>778</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8494,7 +8494,7 @@
         <v>780</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8508,7 +8508,7 @@
         <v>782</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,7 +8522,7 @@
         <v>784</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,7 +8536,7 @@
         <v>786</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8550,7 +8550,7 @@
         <v>788</v>
       </c>
       <c r="D416" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8564,7 +8564,7 @@
         <v>537</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8578,7 +8578,7 @@
         <v>791</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8592,7 +8592,7 @@
         <v>793</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8606,7 +8606,7 @@
         <v>795</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8620,7 +8620,7 @@
         <v>797</v>
       </c>
       <c r="D421" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8634,7 +8634,7 @@
         <v>799</v>
       </c>
       <c r="D422" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8648,7 +8648,7 @@
         <v>801</v>
       </c>
       <c r="D423" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8662,7 +8662,7 @@
         <v>803</v>
       </c>
       <c r="D424" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8676,7 +8676,7 @@
         <v>805</v>
       </c>
       <c r="D425" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,7 +8690,7 @@
         <v>807</v>
       </c>
       <c r="D426" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8704,7 +8704,7 @@
         <v>809</v>
       </c>
       <c r="D427" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,7 +8718,7 @@
         <v>811</v>
       </c>
       <c r="D428" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8732,7 +8732,7 @@
         <v>813</v>
       </c>
       <c r="D429" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8746,7 +8746,7 @@
         <v>815</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8760,7 +8760,7 @@
         <v>817</v>
       </c>
       <c r="D431" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8774,7 +8774,7 @@
         <v>819</v>
       </c>
       <c r="D432" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8788,7 +8788,7 @@
         <v>821</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8802,7 +8802,7 @@
         <v>823</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8816,7 +8816,7 @@
         <v>825</v>
       </c>
       <c r="D435" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8830,7 +8830,7 @@
         <v>827</v>
       </c>
       <c r="D436" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8844,7 +8844,7 @@
         <v>829</v>
       </c>
       <c r="D437" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8858,7 +8858,7 @@
         <v>831</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8872,7 +8872,7 @@
         <v>833</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8886,7 +8886,7 @@
         <v>835</v>
       </c>
       <c r="D440" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8900,7 +8900,7 @@
         <v>837</v>
       </c>
       <c r="D441" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,7 +8914,7 @@
         <v>839</v>
       </c>
       <c r="D442" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8928,7 +8928,7 @@
         <v>841</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8942,7 +8942,7 @@
         <v>843</v>
       </c>
       <c r="D444" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8956,7 +8956,7 @@
         <v>845</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8970,7 +8970,7 @@
         <v>847</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,7 +8984,7 @@
         <v>849</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8998,7 +8998,7 @@
         <v>851</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9012,7 +9012,7 @@
         <v>853</v>
       </c>
       <c r="D449" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9026,7 +9026,7 @@
         <v>855</v>
       </c>
       <c r="D450" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,7 +9040,7 @@
         <v>857</v>
       </c>
       <c r="D451" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,7 +9054,7 @@
         <v>859</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9068,7 +9068,7 @@
         <v>861</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9082,7 +9082,7 @@
         <v>863</v>
       </c>
       <c r="D454" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9096,7 +9096,7 @@
         <v>865</v>
       </c>
       <c r="D455" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9110,7 +9110,7 @@
         <v>867</v>
       </c>
       <c r="D456" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9124,7 +9124,7 @@
         <v>869</v>
       </c>
       <c r="D457" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9138,7 +9138,7 @@
         <v>871</v>
       </c>
       <c r="D458" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9152,7 +9152,7 @@
         <v>873</v>
       </c>
       <c r="D459" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9166,7 +9166,7 @@
         <v>875</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9180,7 +9180,7 @@
         <v>877</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9194,7 +9194,7 @@
         <v>879</v>
       </c>
       <c r="D462" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9208,7 +9208,7 @@
         <v>881</v>
       </c>
       <c r="D463" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,7 +9222,7 @@
         <v>883</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,7 +9236,7 @@
         <v>885</v>
       </c>
       <c r="D465" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,7 +9250,7 @@
         <v>887</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9264,7 +9264,7 @@
         <v>889</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9278,7 +9278,7 @@
         <v>891</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9292,7 +9292,7 @@
         <v>893</v>
       </c>
       <c r="D469" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9315,7 +9315,7 @@
         <v>896</v>
       </c>
       <c r="D472" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9329,7 +9329,7 @@
         <v>898</v>
       </c>
       <c r="D473" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9343,7 +9343,7 @@
         <v>900</v>
       </c>
       <c r="D474" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,7 +9357,7 @@
         <v>902</v>
       </c>
       <c r="D475" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9371,7 +9371,7 @@
         <v>904</v>
       </c>
       <c r="D476" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9385,7 +9385,7 @@
         <v>906</v>
       </c>
       <c r="D477" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,7 +9399,7 @@
         <v>908</v>
       </c>
       <c r="D478" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9413,7 +9413,7 @@
         <v>910</v>
       </c>
       <c r="D479" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9427,7 +9427,7 @@
         <v>912</v>
       </c>
       <c r="D480" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9441,7 +9441,7 @@
         <v>914</v>
       </c>
       <c r="D481" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3028,8 +3028,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3753,7 +3753,7 @@
         <v>106</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -2774,7 +2774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2853,6 +2853,12 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2899,7 +2905,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2942,6 +2948,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3028,8 +3038,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3756,7 +3766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="21.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
@@ -3766,7 +3776,7 @@
       <c r="C58" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5942,7 +5952,7 @@
       <c r="B220" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C220" s="12" t="s">
         <v>420</v>
       </c>
       <c r="D220" s="7" t="s">
@@ -7128,7 +7138,7 @@
       <c r="B309" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C309" s="11" t="s">
+      <c r="C309" s="12" t="s">
         <v>588</v>
       </c>
       <c r="D309" s="7" t="s">
@@ -7598,7 +7608,7 @@
       <c r="B344" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="C344" s="11" t="s">
+      <c r="C344" s="12" t="s">
         <v>655</v>
       </c>
       <c r="D344" s="7" t="s">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -2858,6 +2858,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3777,7 +3778,7 @@
         <v>108</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -2774,7 +2774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2860,6 +2860,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2906,7 +2912,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2952,6 +2958,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3040,7 +3050,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3795,7 +3805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="21.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>111</v>
       </c>
@@ -3805,7 +3815,7 @@
       <c r="C60" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5953,7 +5963,7 @@
       <c r="B220" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="C220" s="13" t="s">
         <v>420</v>
       </c>
       <c r="D220" s="7" t="s">
@@ -7139,7 +7149,7 @@
       <c r="B309" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C309" s="12" t="s">
+      <c r="C309" s="13" t="s">
         <v>588</v>
       </c>
       <c r="D309" s="7" t="s">
@@ -7609,7 +7619,7 @@
       <c r="B344" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="C344" s="12" t="s">
+      <c r="C344" s="13" t="s">
         <v>655</v>
       </c>
       <c r="D344" s="7" t="s">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3816,7 +3816,7 @@
         <v>112</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -2774,7 +2774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2860,12 +2860,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2912,7 +2906,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2958,10 +2952,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3050,7 +3040,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3815,7 +3805,7 @@
       <c r="C60" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3830,7 +3820,7 @@
         <v>114</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,7 +5953,7 @@
       <c r="B220" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C220" s="12" t="s">
         <v>420</v>
       </c>
       <c r="D220" s="7" t="s">
@@ -7149,7 +7139,7 @@
       <c r="B309" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C309" s="13" t="s">
+      <c r="C309" s="12" t="s">
         <v>588</v>
       </c>
       <c r="D309" s="7" t="s">
@@ -7619,7 +7609,7 @@
       <c r="B344" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="C344" s="13" t="s">
+      <c r="C344" s="12" t="s">
         <v>655</v>
       </c>
       <c r="D344" s="7" t="s">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
+      <selection pane="topLeft" activeCell="D66" activeCellId="0" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3890,7 +3890,7 @@
         <v>124</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3039,8 +3039,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D66" activeCellId="0" sqref="D66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D101" activeCellId="0" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4357,7 +4357,7 @@
         <v>191</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D101" activeCellId="0" sqref="D101"/>
+      <selection pane="topLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4371,7 +4371,7 @@
         <v>193</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
+      <selection pane="topLeft" activeCell="D104" activeCellId="0" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4399,7 +4399,7 @@
         <v>197</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D104" activeCellId="0" sqref="D104"/>
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4413,7 +4413,7 @@
         <v>199</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/00_LOVE_BABBAR_FINAL450.xlsx
+++ b/00_LOVE_BABBAR_FINAL450.xlsx
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
+      <selection pane="topLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4441,7 +4441,7 @@
         <v>203</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
